--- a/template.xlsx
+++ b/template.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>title</t>
@@ -94,7 +97,7 @@
 <file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -105,23 +108,29 @@
     </comment>
     <comment authorId="0" ref="B1" shapeId="0">
       <text>
+        <t># 統計量
+{'type': ['number'], 'required': true}</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C1" shapeId="0">
+      <text>
         <t># Help 見出し e.g., "Anchors"
 {'type': ['string'], 'required': true}</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <t># 日本語解説
 {'type': ['string', 'null'], 'required': false}</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <t># English description
 {'type': ['string', 'null'], 'required': false}</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <t># このカラムの内容を示す実記述sheetへのリンク
 {'type': 'array', 'required': true}</t>
@@ -134,7 +143,7 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -162,7 +171,7 @@
 <file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -190,7 +199,7 @@
 <file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -218,7 +227,7 @@
 <file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -246,7 +255,7 @@
 <file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -274,7 +283,7 @@
 <file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -302,7 +311,7 @@
 <file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -330,7 +339,7 @@
 <file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -358,7 +367,7 @@
 <file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -386,7 +395,7 @@
 <file path=xl/comments/comment8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -414,7 +423,7 @@
 <file path=xl/comments/comment9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>table_reconstructor.py</author>
+    <author>jsonica.py</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A1" shapeId="0">
@@ -756,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -787,13 +796,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -818,13 +827,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -849,13 +858,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,7 +887,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,6 +902,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -917,13 +929,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -948,13 +960,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -979,13 +991,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1010,13 +1022,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1041,13 +1053,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1072,13 +1084,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1103,13 +1115,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
